--- a/Code/Results/Cases/Case_4_108/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_108/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.497446516429534</v>
+        <v>1.885071687935351</v>
       </c>
       <c r="C2">
-        <v>0.3095962318633241</v>
+        <v>0.1132345051885864</v>
       </c>
       <c r="D2">
-        <v>0.2291564000573914</v>
+        <v>0.4778685933874272</v>
       </c>
       <c r="E2">
-        <v>0.05243267730653667</v>
+        <v>0.1472295200618126</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008216583552959881</v>
+        <v>0.00253614985208311</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04330273800535167</v>
+        <v>0.05800043467811378</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2412440734912593</v>
+        <v>0.412400664894534</v>
       </c>
       <c r="M2">
-        <v>0.4700588841524507</v>
+        <v>0.4611625124625718</v>
       </c>
       <c r="N2">
-        <v>0.9973721277236791</v>
+        <v>2.069391239037643</v>
       </c>
       <c r="O2">
-        <v>3.463612244839481</v>
+        <v>6.670376969039779</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.187322608029945</v>
+        <v>1.806640904485675</v>
       </c>
       <c r="C3">
-        <v>0.2755951623425261</v>
+        <v>0.1023676447247652</v>
       </c>
       <c r="D3">
-        <v>0.2189103763998048</v>
+        <v>0.4779869726334738</v>
       </c>
       <c r="E3">
-        <v>0.05331975150884105</v>
+        <v>0.148072051492278</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.000826952385101102</v>
+        <v>0.00253970459317375</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04128487358087796</v>
+        <v>0.05727429081291291</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2223055436387256</v>
+        <v>0.4095357277453999</v>
       </c>
       <c r="M3">
-        <v>0.415841060633241</v>
+        <v>0.4484826607318837</v>
       </c>
       <c r="N3">
-        <v>1.050274263404501</v>
+        <v>2.091443166690567</v>
       </c>
       <c r="O3">
-        <v>3.332142800491567</v>
+        <v>6.68420051333257</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.998423779823099</v>
+        <v>1.759234075971449</v>
       </c>
       <c r="C4">
-        <v>0.2547192908055393</v>
+        <v>0.09564921085302558</v>
       </c>
       <c r="D4">
-        <v>0.2129207493346428</v>
+        <v>0.4782484881439899</v>
       </c>
       <c r="E4">
-        <v>0.0539138912062409</v>
+        <v>0.148625833459934</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008303104500477219</v>
+        <v>0.002542005248579694</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04004341605107697</v>
+        <v>0.05682157831766688</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2109238406684923</v>
+        <v>0.4079339305533765</v>
       </c>
       <c r="M4">
-        <v>0.3828975506667689</v>
+        <v>0.4408870711722344</v>
       </c>
       <c r="N4">
-        <v>1.084111386708653</v>
+        <v>2.105671988390547</v>
       </c>
       <c r="O4">
-        <v>3.257993417584231</v>
+        <v>6.69604658079794</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.921783237656683</v>
+        <v>1.740105065573687</v>
       </c>
       <c r="C5">
-        <v>0.2462087424848534</v>
+        <v>0.09289987138647859</v>
       </c>
       <c r="D5">
-        <v>0.2105521302841282</v>
+        <v>0.4784026092422238</v>
       </c>
       <c r="E5">
-        <v>0.05416823474395471</v>
+        <v>0.1488606883089449</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008317064999089067</v>
+        <v>0.002542972555509747</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03953665712129428</v>
+        <v>0.0566353710045675</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2063438128933512</v>
+        <v>0.4073208367269956</v>
       </c>
       <c r="M5">
-        <v>0.3695514827230042</v>
+        <v>0.4378397594626477</v>
       </c>
       <c r="N5">
-        <v>1.09823293764587</v>
+        <v>2.111643578761804</v>
       </c>
       <c r="O5">
-        <v>3.229339820053781</v>
+        <v>6.701718272420635</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.909076252623294</v>
+        <v>1.736940194326081</v>
       </c>
       <c r="C6">
-        <v>0.2447952601053345</v>
+        <v>0.09244265202175939</v>
       </c>
       <c r="D6">
-        <v>0.2101630821552192</v>
+        <v>0.4784310749453766</v>
       </c>
       <c r="E6">
-        <v>0.05421120072890329</v>
+        <v>0.1489002409216145</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008319399969903698</v>
+        <v>0.00254313497675415</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03945245209155601</v>
+        <v>0.05660434736981657</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2055867025202787</v>
+        <v>0.4072214307967528</v>
       </c>
       <c r="M6">
-        <v>0.3673398934103673</v>
+        <v>0.43733665790743</v>
       </c>
       <c r="N6">
-        <v>1.100597674302496</v>
+        <v>2.112645619926178</v>
       </c>
       <c r="O6">
-        <v>3.224673770674968</v>
+        <v>6.702711042988653</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.997388870040197</v>
+        <v>1.7589753261189</v>
       </c>
       <c r="C7">
-        <v>0.2546045332922802</v>
+        <v>0.09561217885119788</v>
       </c>
       <c r="D7">
-        <v>0.2128885175820443</v>
+        <v>0.4782503740496935</v>
       </c>
       <c r="E7">
-        <v>0.05391727214012931</v>
+        <v>0.1486289635881048</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008303291651400861</v>
+        <v>0.002542018173534693</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.04003658547873101</v>
+        <v>0.05681907403679176</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2108618425295958</v>
+        <v>0.4079255014736631</v>
       </c>
       <c r="M7">
-        <v>0.3827172531371019</v>
+        <v>0.4408457796324328</v>
       </c>
       <c r="N7">
-        <v>1.084300498324443</v>
+        <v>2.105751821929924</v>
       </c>
       <c r="O7">
-        <v>3.257600772365635</v>
+        <v>6.696119652814218</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.390172849498754</v>
+        <v>1.857873703497603</v>
       </c>
       <c r="C8">
-        <v>0.2978701615189863</v>
+        <v>0.1094972315048182</v>
       </c>
       <c r="D8">
-        <v>0.2255587638353518</v>
+        <v>0.4778702588557451</v>
       </c>
       <c r="E8">
-        <v>0.05272814058235298</v>
+        <v>0.1475124657504452</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008234617801164125</v>
+        <v>0.002537351084778311</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04260734862907611</v>
+        <v>0.05775148391220952</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.234660448574104</v>
+        <v>0.4113802484410201</v>
       </c>
       <c r="M8">
-        <v>0.4512874163091283</v>
+        <v>0.4567512044518764</v>
       </c>
       <c r="N8">
-        <v>1.015326555679218</v>
+        <v>2.07685178268016</v>
       </c>
       <c r="O8">
-        <v>3.416861398263649</v>
+        <v>6.674446187064945</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.174660231071073</v>
+        <v>2.057728738109233</v>
       </c>
       <c r="C9">
-        <v>0.3829047693150187</v>
+        <v>0.1363574872802076</v>
       </c>
       <c r="D9">
-        <v>0.2529716963194915</v>
+        <v>0.4786205806094728</v>
       </c>
       <c r="E9">
-        <v>0.05079897711255121</v>
+        <v>0.1456116721671545</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008108201332515107</v>
+        <v>0.002529131277181882</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04764040178446649</v>
+        <v>0.05952555710826601</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2834772743608909</v>
+        <v>0.4193993106605376</v>
       </c>
       <c r="M9">
-        <v>0.5889162615278138</v>
+        <v>0.4894415158466643</v>
       </c>
       <c r="N9">
-        <v>0.8912047206177665</v>
+        <v>2.025643212486376</v>
       </c>
       <c r="O9">
-        <v>3.785681041291497</v>
+        <v>6.658605842648143</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.763034789769449</v>
+        <v>2.208138395784999</v>
       </c>
       <c r="C10">
-        <v>0.4457782158834789</v>
+        <v>0.1558660642203904</v>
       </c>
       <c r="D10">
-        <v>0.2749384862523385</v>
+        <v>0.4800809133059829</v>
       </c>
       <c r="E10">
-        <v>0.0496421697413032</v>
+        <v>0.1443902054194268</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008019940539704118</v>
+        <v>0.00252365471961197</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0513508337046531</v>
+        <v>0.06079596562855727</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3209411538008311</v>
+        <v>0.4260456435396378</v>
       </c>
       <c r="M10">
-        <v>0.692589088275831</v>
+        <v>0.5143672062467175</v>
       </c>
       <c r="N10">
-        <v>0.8073693198943097</v>
+        <v>1.991348421348306</v>
       </c>
       <c r="O10">
-        <v>4.097629357433448</v>
+        <v>6.663250978025417</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.034121571943672</v>
+        <v>2.277334929143592</v>
       </c>
       <c r="C11">
-        <v>0.474536965897471</v>
+        <v>0.1646918986010917</v>
       </c>
       <c r="D11">
-        <v>0.2853916286551623</v>
+        <v>0.4809421207302904</v>
       </c>
       <c r="E11">
-        <v>0.04917609343784513</v>
+        <v>0.1438723431032756</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007980692149888569</v>
+        <v>0.002521284197864604</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05304590839660861</v>
+        <v>0.06136677898311049</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3384016781254928</v>
+        <v>0.429232381678716</v>
       </c>
       <c r="M11">
-        <v>0.7404608533904735</v>
+        <v>0.5259026265037505</v>
       </c>
       <c r="N11">
-        <v>0.7709656470553643</v>
+        <v>1.976468896268155</v>
       </c>
       <c r="O11">
-        <v>4.250025061150723</v>
+        <v>6.668907085411433</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.13734165817857</v>
+        <v>2.303648406291416</v>
       </c>
       <c r="C12">
-        <v>0.4854560492615576</v>
+        <v>0.1680269540914878</v>
       </c>
       <c r="D12">
-        <v>0.2894218693222967</v>
+        <v>0.4812964954678449</v>
       </c>
       <c r="E12">
-        <v>0.04900858236687178</v>
+        <v>0.1436816613791532</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.000796595069183985</v>
+        <v>0.002520403818047801</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05368921709354879</v>
+        <v>0.06158191037961558</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3450799711429511</v>
+        <v>0.4304625147792933</v>
       </c>
       <c r="M12">
-        <v>0.7587045941119683</v>
+        <v>0.5302989035401566</v>
       </c>
       <c r="N12">
-        <v>0.7574425798574271</v>
+        <v>1.970938140984646</v>
       </c>
       <c r="O12">
-        <v>4.309386049461693</v>
+        <v>6.671558826225009</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.115085007491246</v>
+        <v>2.297976442313711</v>
       </c>
       <c r="C13">
-        <v>0.4831030456287237</v>
+        <v>0.1673090072854393</v>
       </c>
       <c r="D13">
-        <v>0.2885505935405632</v>
+        <v>0.4812189188508285</v>
       </c>
       <c r="E13">
-        <v>0.04904425385810995</v>
+        <v>0.1437224871759728</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007969120289752012</v>
+        <v>0.002520592656125369</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05355059928291794</v>
+        <v>0.06153562352447395</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3436386238737015</v>
+        <v>0.4301965450958818</v>
       </c>
       <c r="M13">
-        <v>0.754770101558627</v>
+        <v>0.5293508417613282</v>
       </c>
       <c r="N13">
-        <v>0.7603431346517517</v>
+        <v>1.972124670498024</v>
       </c>
       <c r="O13">
-        <v>4.296525701006374</v>
+        <v>6.6709650419524</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.042601784982253</v>
+        <v>2.279497551473469</v>
       </c>
       <c r="C14">
-        <v>0.4754346715911879</v>
+        <v>0.1649664183668449</v>
       </c>
       <c r="D14">
-        <v>0.2857217246271375</v>
+        <v>0.4809707094344873</v>
       </c>
       <c r="E14">
-        <v>0.04916213020423044</v>
+        <v>0.1438565470195137</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007979476986980594</v>
+        <v>0.002521211422263376</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05309880295941127</v>
+        <v>0.06138449849105854</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3389497373417498</v>
+        <v>0.4293331173569044</v>
       </c>
       <c r="M14">
-        <v>0.7419593752837983</v>
+        <v>0.5262637496035296</v>
       </c>
       <c r="N14">
-        <v>0.7698477630441953</v>
+        <v>1.976011797024096</v>
       </c>
       <c r="O14">
-        <v>4.254874748253428</v>
+        <v>6.669115024251596</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.998279590341326</v>
+        <v>2.268193022454227</v>
       </c>
       <c r="C15">
-        <v>0.470741510012175</v>
+        <v>0.1635305881468412</v>
       </c>
       <c r="D15">
-        <v>0.283998495469902</v>
+        <v>0.4808223517829902</v>
       </c>
       <c r="E15">
-        <v>0.04923551283343919</v>
+        <v>0.1439393682138297</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007985836260080735</v>
+        <v>0.00252159268314432</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0528222618443408</v>
+        <v>0.06129179673048668</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3360864974714985</v>
+        <v>0.4288072854509721</v>
       </c>
       <c r="M15">
-        <v>0.7341279316796232</v>
+        <v>0.5243764651238862</v>
       </c>
       <c r="N15">
-        <v>0.7757041728439074</v>
+        <v>1.978406293948334</v>
       </c>
       <c r="O15">
-        <v>4.229581959754796</v>
+        <v>6.668048250906679</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.745393697927284</v>
+        <v>2.20363172802729</v>
       </c>
       <c r="C16">
-        <v>0.4439024419042426</v>
+        <v>0.1552882871042982</v>
       </c>
       <c r="D16">
-        <v>0.2742650859393478</v>
+        <v>0.4800285883424635</v>
       </c>
       <c r="E16">
-        <v>0.04967386722597844</v>
+        <v>0.144424808278667</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008022522939237394</v>
+        <v>0.002523812062283419</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05124023341440775</v>
+        <v>0.06075851855531766</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3198090021881086</v>
+        <v>0.4258406602510405</v>
       </c>
       <c r="M16">
-        <v>0.6894759865227229</v>
+        <v>0.513617277759046</v>
       </c>
       <c r="N16">
-        <v>0.8097843496363151</v>
+        <v>1.992335354449322</v>
       </c>
       <c r="O16">
-        <v>4.087893013686767</v>
+        <v>6.662952667852778</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.591184670653945</v>
+        <v>2.16422302266875</v>
       </c>
       <c r="C17">
-        <v>0.4274820292554296</v>
+        <v>0.150219360205881</v>
       </c>
       <c r="D17">
-        <v>0.2684157470030897</v>
+        <v>0.4795920274834771</v>
       </c>
       <c r="E17">
-        <v>0.0499584196947449</v>
+        <v>0.1447322797672728</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008045254087781926</v>
+        <v>0.002525204457047285</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05027181396497937</v>
+        <v>0.06042954929449706</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.309934639875479</v>
+        <v>0.4240624851751988</v>
       </c>
       <c r="M17">
-        <v>0.6622747318088358</v>
+        <v>0.5070670708621492</v>
       </c>
       <c r="N17">
-        <v>0.8311442961406037</v>
+        <v>2.001065183850923</v>
       </c>
       <c r="O17">
-        <v>4.003756370077667</v>
+        <v>6.660734435845768</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.502806119909337</v>
+        <v>2.141629136253982</v>
       </c>
       <c r="C18">
-        <v>0.4180518476076429</v>
+        <v>0.1472992676595766</v>
       </c>
       <c r="D18">
-        <v>0.2650943257880272</v>
+        <v>0.4793594653936424</v>
       </c>
       <c r="E18">
-        <v>0.05012772815801014</v>
+        <v>0.1449126868594286</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008058413887450312</v>
+        <v>0.002526016700244838</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04971545523290644</v>
+        <v>0.06023966653608781</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.304294108440331</v>
+        <v>0.4230551010439854</v>
       </c>
       <c r="M18">
-        <v>0.6466952834803052</v>
+        <v>0.5033180821967065</v>
       </c>
       <c r="N18">
-        <v>0.8435922993646479</v>
+        <v>2.006154242995661</v>
       </c>
       <c r="O18">
-        <v>3.956341155940095</v>
+        <v>6.659792027165452</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.472935257866141</v>
+        <v>2.133991799148248</v>
       </c>
       <c r="C19">
-        <v>0.4148612461545724</v>
+        <v>0.1463097906872122</v>
       </c>
       <c r="D19">
-        <v>0.2639769634836142</v>
+        <v>0.4792839092769157</v>
       </c>
       <c r="E19">
-        <v>0.05018601233905073</v>
+        <v>0.144974381009904</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008062884497426397</v>
+        <v>0.002526293667838135</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04952718222575569</v>
+        <v>0.06017526076945856</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3023908273031992</v>
+        <v>0.4227166617199174</v>
       </c>
       <c r="M19">
-        <v>0.6414312896223677</v>
+        <v>0.5020519257038245</v>
       </c>
       <c r="N19">
-        <v>0.8478344819648633</v>
+        <v>2.007888969510278</v>
       </c>
       <c r="O19">
-        <v>3.940450961052818</v>
+        <v>6.659530203317644</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.607567030557959</v>
+        <v>2.16841060374486</v>
       </c>
       <c r="C20">
-        <v>0.4292284765865588</v>
+        <v>0.1507594307900604</v>
       </c>
       <c r="D20">
-        <v>0.2690339329414684</v>
+        <v>0.4796365821386246</v>
       </c>
       <c r="E20">
-        <v>0.04992754241818709</v>
+        <v>0.1446991807928351</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008042825535598527</v>
+        <v>0.002525055057698361</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05037483384843355</v>
+        <v>0.06046463781916245</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3109817087320721</v>
+        <v>0.4242501843764614</v>
       </c>
       <c r="M20">
-        <v>0.6651634270454494</v>
+        <v>0.5077624366206805</v>
       </c>
       <c r="N20">
-        <v>0.8288536027747888</v>
+        <v>2.000128851532688</v>
       </c>
       <c r="O20">
-        <v>4.012610641961487</v>
+        <v>6.660936055600928</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.06387591557592</v>
+        <v>2.284922266264005</v>
       </c>
       <c r="C21">
-        <v>0.477686226253951</v>
+        <v>0.1656546868389057</v>
       </c>
       <c r="D21">
-        <v>0.2865506341918547</v>
+        <v>0.4810428482147699</v>
       </c>
       <c r="E21">
-        <v>0.04912726053389971</v>
+        <v>0.1438170233552061</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007976431760486402</v>
+        <v>0.002521029207230974</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05323146465267925</v>
+        <v>0.06142891536303807</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3403251230934927</v>
+        <v>0.4295860931268862</v>
       </c>
       <c r="M21">
-        <v>0.7457189408272669</v>
+        <v>0.5271697434042366</v>
       </c>
       <c r="N21">
-        <v>0.7670487983752921</v>
+        <v>1.974867236116722</v>
       </c>
       <c r="O21">
-        <v>4.267062599283577</v>
+        <v>6.669644577526583</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.365433755486492</v>
+        <v>2.361711493429596</v>
       </c>
       <c r="C22">
-        <v>0.5095271376581536</v>
+        <v>0.1753481921587365</v>
       </c>
       <c r="D22">
-        <v>0.2984206549077157</v>
+        <v>0.482126584285453</v>
       </c>
       <c r="E22">
-        <v>0.04865675589176988</v>
+        <v>0.1432720773729308</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.000793374068834683</v>
+        <v>0.002518498796546594</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05510692704790188</v>
+        <v>0.06205316136822603</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3598929080420987</v>
+        <v>0.4332096767519289</v>
       </c>
       <c r="M22">
-        <v>0.7990484347205395</v>
+        <v>0.5400170219914315</v>
       </c>
       <c r="N22">
-        <v>0.728190969606171</v>
+        <v>1.958962359483925</v>
       </c>
       <c r="O22">
-        <v>4.443066927778432</v>
+        <v>6.678308360510755</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.204156220757568</v>
+        <v>2.320669248887839</v>
       </c>
       <c r="C23">
-        <v>0.4925152136069073</v>
+        <v>0.170178404601586</v>
       </c>
       <c r="D23">
-        <v>0.292044806326615</v>
+        <v>0.4815331269418976</v>
       </c>
       <c r="E23">
-        <v>0.04890295085218632</v>
+        <v>0.1435600384710849</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007956464600761288</v>
+        <v>0.002519840136491459</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05410504240795078</v>
+        <v>0.06172053599494021</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3494113003124681</v>
+        <v>0.4312632658630662</v>
       </c>
       <c r="M23">
-        <v>0.7705182937863881</v>
+        <v>0.533145297113272</v>
       </c>
       <c r="N23">
-        <v>0.7487850915472816</v>
+        <v>1.967395705323961</v>
       </c>
       <c r="O23">
-        <v>4.348191266887966</v>
+        <v>6.673412235361468</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.600159704241662</v>
+        <v>2.166517202937314</v>
       </c>
       <c r="C24">
-        <v>0.4284388766458278</v>
+        <v>0.1505152832475858</v>
       </c>
       <c r="D24">
-        <v>0.2687543224199942</v>
+        <v>0.479616381591299</v>
       </c>
       <c r="E24">
-        <v>0.04994148425721701</v>
+        <v>0.1447141335074518</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008043923198199076</v>
+        <v>0.002525122564472369</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05032825734678781</v>
+        <v>0.06044877664563231</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3105082160812458</v>
+        <v>0.4241652791104116</v>
       </c>
       <c r="M24">
-        <v>0.6638572654327888</v>
+        <v>0.5074480093756719</v>
       </c>
       <c r="N24">
-        <v>0.8298887032858158</v>
+        <v>2.000551948812266</v>
       </c>
       <c r="O24">
-        <v>4.008604658438912</v>
+        <v>6.660843866402018</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.960582892519881</v>
+        <v>2.00303248767392</v>
       </c>
       <c r="C25">
-        <v>0.3598525134505621</v>
+        <v>0.1291306231057376</v>
       </c>
       <c r="D25">
-        <v>0.2452551217865846</v>
+        <v>0.4782577584500274</v>
       </c>
       <c r="E25">
-        <v>0.051276263941614</v>
+        <v>0.1460950807905821</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008141557896910091</v>
+        <v>0.002531255746134334</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04627797473935047</v>
+        <v>0.05905142968906674</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2700126092260717</v>
+        <v>0.4170971288848477</v>
       </c>
       <c r="M25">
-        <v>0.5512834201387307</v>
+        <v>0.4804380008622076</v>
       </c>
       <c r="N25">
-        <v>0.9235348280093119</v>
+        <v>2.03891182925423</v>
       </c>
       <c r="O25">
-        <v>3.679212153935509</v>
+        <v>6.660033774022367</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_108/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_108/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.885071687935351</v>
+        <v>2.497446516429534</v>
       </c>
       <c r="C2">
-        <v>0.1132345051885864</v>
+        <v>0.3095962318634804</v>
       </c>
       <c r="D2">
-        <v>0.4778685933874272</v>
+        <v>0.2291564000571498</v>
       </c>
       <c r="E2">
-        <v>0.1472295200618126</v>
+        <v>0.05243267730653578</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.00253614985208311</v>
+        <v>0.0008216583553287401</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05800043467811378</v>
+        <v>0.0433027380053872</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.412400664894534</v>
+        <v>0.2412440734912167</v>
       </c>
       <c r="M2">
-        <v>0.4611625124625718</v>
+        <v>0.4700588841524507</v>
       </c>
       <c r="N2">
-        <v>2.069391239037643</v>
+        <v>0.9973721277236791</v>
       </c>
       <c r="O2">
-        <v>6.670376969039779</v>
+        <v>3.463612244839481</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.806640904485675</v>
+        <v>2.187322608030115</v>
       </c>
       <c r="C3">
-        <v>0.1023676447247652</v>
+        <v>0.2755951623427393</v>
       </c>
       <c r="D3">
-        <v>0.4779869726334738</v>
+        <v>0.2189103763999185</v>
       </c>
       <c r="E3">
-        <v>0.148072051492278</v>
+        <v>0.05331975150884283</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.00253970459317375</v>
+        <v>0.0008269523850414043</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05727429081291291</v>
+        <v>0.04128487358094901</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4095357277453999</v>
+        <v>0.2223055436387824</v>
       </c>
       <c r="M3">
-        <v>0.4484826607318837</v>
+        <v>0.4158410606332481</v>
       </c>
       <c r="N3">
-        <v>2.091443166690567</v>
+        <v>1.050274263404501</v>
       </c>
       <c r="O3">
-        <v>6.68420051333257</v>
+        <v>3.332142800491567</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.759234075971449</v>
+        <v>1.998423779823042</v>
       </c>
       <c r="C4">
-        <v>0.09564921085302558</v>
+        <v>0.2547192908055393</v>
       </c>
       <c r="D4">
-        <v>0.4782484881439899</v>
+        <v>0.2129207493346144</v>
       </c>
       <c r="E4">
-        <v>0.148625833459934</v>
+        <v>0.05391389120623646</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002542005248579694</v>
+        <v>0.0008303104500469393</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05682157831766688</v>
+        <v>0.04004341605107342</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4079339305533765</v>
+        <v>0.2109238406685066</v>
       </c>
       <c r="M4">
-        <v>0.4408870711722344</v>
+        <v>0.3828975506667689</v>
       </c>
       <c r="N4">
-        <v>2.105671988390547</v>
+        <v>1.084111386708605</v>
       </c>
       <c r="O4">
-        <v>6.69604658079794</v>
+        <v>3.257993417584203</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.740105065573687</v>
+        <v>1.921783237656769</v>
       </c>
       <c r="C5">
-        <v>0.09289987138647859</v>
+        <v>0.2462087424846118</v>
       </c>
       <c r="D5">
-        <v>0.4784026092422238</v>
+        <v>0.2105521302839009</v>
       </c>
       <c r="E5">
-        <v>0.1488606883089449</v>
+        <v>0.05416823474395649</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002542972555509747</v>
+        <v>0.000831706499968484</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0566353710045675</v>
+        <v>0.03953665712138843</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4073208367269956</v>
+        <v>0.2063438128934152</v>
       </c>
       <c r="M5">
-        <v>0.4378397594626477</v>
+        <v>0.3695514827230113</v>
       </c>
       <c r="N5">
-        <v>2.111643578761804</v>
+        <v>1.09823293764594</v>
       </c>
       <c r="O5">
-        <v>6.701718272420635</v>
+        <v>3.229339820053781</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.736940194326081</v>
+        <v>1.909076252623436</v>
       </c>
       <c r="C6">
-        <v>0.09244265202175939</v>
+        <v>0.2447952601054482</v>
       </c>
       <c r="D6">
-        <v>0.4784310749453766</v>
+        <v>0.210163082155276</v>
       </c>
       <c r="E6">
-        <v>0.1489002409216145</v>
+        <v>0.05421120072888996</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.00254313497675415</v>
+        <v>0.0008319399969324293</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05660434736981657</v>
+        <v>0.03945245209166615</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4072214307967528</v>
+        <v>0.2055867025204066</v>
       </c>
       <c r="M6">
-        <v>0.43733665790743</v>
+        <v>0.3673398934103602</v>
       </c>
       <c r="N6">
-        <v>2.112645619926178</v>
+        <v>1.100597674302422</v>
       </c>
       <c r="O6">
-        <v>6.702711042988653</v>
+        <v>3.224673770674883</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.7589753261189</v>
+        <v>1.99738887004014</v>
       </c>
       <c r="C7">
-        <v>0.09561217885119788</v>
+        <v>0.2546045332922802</v>
       </c>
       <c r="D7">
-        <v>0.4782503740496935</v>
+        <v>0.2128885175820017</v>
       </c>
       <c r="E7">
-        <v>0.1486289635881048</v>
+        <v>0.05391727214012842</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002542018173534693</v>
+        <v>0.0008303291651107879</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05681907403679176</v>
+        <v>0.04003658547864575</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4079255014736631</v>
+        <v>0.2108618425295532</v>
       </c>
       <c r="M7">
-        <v>0.4408457796324328</v>
+        <v>0.3827172531370948</v>
       </c>
       <c r="N7">
-        <v>2.105751821929924</v>
+        <v>1.084300498324446</v>
       </c>
       <c r="O7">
-        <v>6.696119652814218</v>
+        <v>3.257600772365635</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.857873703497603</v>
+        <v>2.390172849498754</v>
       </c>
       <c r="C8">
-        <v>0.1094972315048182</v>
+        <v>0.2978701615188868</v>
       </c>
       <c r="D8">
-        <v>0.4778702588557451</v>
+        <v>0.2255587638352523</v>
       </c>
       <c r="E8">
-        <v>0.1475124657504452</v>
+        <v>0.05272814058237518</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002537351084778311</v>
+        <v>0.0008234617801180272</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05775148391220952</v>
+        <v>0.04260734862914006</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4113802484410201</v>
+        <v>0.2346604485741608</v>
       </c>
       <c r="M8">
-        <v>0.4567512044518764</v>
+        <v>0.4512874163091283</v>
       </c>
       <c r="N8">
-        <v>2.07685178268016</v>
+        <v>1.015326555679229</v>
       </c>
       <c r="O8">
-        <v>6.674446187064945</v>
+        <v>3.416861398263507</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.057728738109233</v>
+        <v>3.174660231071186</v>
       </c>
       <c r="C9">
-        <v>0.1363574872802076</v>
+        <v>0.3829047693148766</v>
       </c>
       <c r="D9">
-        <v>0.4786205806094728</v>
+        <v>0.2529716963194915</v>
       </c>
       <c r="E9">
-        <v>0.1456116721671545</v>
+        <v>0.05079897711254056</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002529131277181882</v>
+        <v>0.0008108201332146887</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05952555710826601</v>
+        <v>0.04764040178442031</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4193993106605376</v>
+        <v>0.2834772743608056</v>
       </c>
       <c r="M9">
-        <v>0.4894415158466643</v>
+        <v>0.5889162615278138</v>
       </c>
       <c r="N9">
-        <v>2.025643212486376</v>
+        <v>0.8912047206177114</v>
       </c>
       <c r="O9">
-        <v>6.658605842648143</v>
+        <v>3.785681041291582</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.208138395784999</v>
+        <v>3.763034789769506</v>
       </c>
       <c r="C10">
-        <v>0.1558660642203904</v>
+        <v>0.4457782158833936</v>
       </c>
       <c r="D10">
-        <v>0.4800809133059829</v>
+        <v>0.2749384862523954</v>
       </c>
       <c r="E10">
-        <v>0.1443902054194268</v>
+        <v>0.04964216974130231</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.00252365471961197</v>
+        <v>0.0008019940539709376</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06079596562855727</v>
+        <v>0.05135083370449323</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4260456435396378</v>
+        <v>0.3209411538008027</v>
       </c>
       <c r="M10">
-        <v>0.5143672062467175</v>
+        <v>0.692589088275831</v>
       </c>
       <c r="N10">
-        <v>1.991348421348306</v>
+        <v>0.8073693198942866</v>
       </c>
       <c r="O10">
-        <v>6.663250978025417</v>
+        <v>4.097629357433334</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.277334929143592</v>
+        <v>4.034121571943729</v>
       </c>
       <c r="C11">
-        <v>0.1646918986010917</v>
+        <v>0.4745369658973573</v>
       </c>
       <c r="D11">
-        <v>0.4809421207302904</v>
+        <v>0.2853916286550913</v>
       </c>
       <c r="E11">
-        <v>0.1438723431032756</v>
+        <v>0.04917609343783003</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002521284197864604</v>
+        <v>0.0007980692150177123</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06136677898311049</v>
+        <v>0.05304590839664769</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.429232381678716</v>
+        <v>0.3384016781255781</v>
       </c>
       <c r="M11">
-        <v>0.5259026265037505</v>
+        <v>0.7404608533904735</v>
       </c>
       <c r="N11">
-        <v>1.976468896268155</v>
+        <v>0.7709656470553607</v>
       </c>
       <c r="O11">
-        <v>6.668907085411433</v>
+        <v>4.250025061150723</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.303648406291416</v>
+        <v>4.137341658178741</v>
       </c>
       <c r="C12">
-        <v>0.1680269540914878</v>
+        <v>0.4854560492616145</v>
       </c>
       <c r="D12">
-        <v>0.4812964954678449</v>
+        <v>0.2894218693222115</v>
       </c>
       <c r="E12">
-        <v>0.1436816613791532</v>
+        <v>0.04900858236686467</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002520403818047801</v>
+        <v>0.0007965950692223235</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06158191037961558</v>
+        <v>0.05368921709352747</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4304625147792933</v>
+        <v>0.3450799711429795</v>
       </c>
       <c r="M12">
-        <v>0.5302989035401566</v>
+        <v>0.7587045941119683</v>
       </c>
       <c r="N12">
-        <v>1.970938140984646</v>
+        <v>0.7574425798574254</v>
       </c>
       <c r="O12">
-        <v>6.671558826225009</v>
+        <v>4.309386049461637</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.297976442313711</v>
+        <v>4.115085007491246</v>
       </c>
       <c r="C13">
-        <v>0.1673090072854393</v>
+        <v>0.4831030456287522</v>
       </c>
       <c r="D13">
-        <v>0.4812189188508285</v>
+        <v>0.2885505935406769</v>
       </c>
       <c r="E13">
-        <v>0.1437224871759728</v>
+        <v>0.04904425385812239</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002520592656125369</v>
+        <v>0.0007969120289634812</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06153562352447395</v>
+        <v>0.05355059928287176</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4301965450958818</v>
+        <v>0.3436386238736304</v>
       </c>
       <c r="M13">
-        <v>0.5293508417613282</v>
+        <v>0.754770101558627</v>
       </c>
       <c r="N13">
-        <v>1.972124670498024</v>
+        <v>0.7603431346517588</v>
       </c>
       <c r="O13">
-        <v>6.6709650419524</v>
+        <v>4.296525701006431</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.279497551473469</v>
+        <v>4.04260178498231</v>
       </c>
       <c r="C14">
-        <v>0.1649664183668449</v>
+        <v>0.4754346715914721</v>
       </c>
       <c r="D14">
-        <v>0.4809707094344873</v>
+        <v>0.2857217246271517</v>
       </c>
       <c r="E14">
-        <v>0.1438565470195137</v>
+        <v>0.04916213020421711</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002521211422263376</v>
+        <v>0.0007979476987384744</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06138449849105854</v>
+        <v>0.05309880295941838</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4293331173569044</v>
+        <v>0.3389497373418209</v>
       </c>
       <c r="M14">
-        <v>0.5262637496035296</v>
+        <v>0.7419593752838125</v>
       </c>
       <c r="N14">
-        <v>1.976011797024096</v>
+        <v>0.7698477630441953</v>
       </c>
       <c r="O14">
-        <v>6.669115024251596</v>
+        <v>4.254874748253428</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.268193022454227</v>
+        <v>3.998279590341326</v>
       </c>
       <c r="C15">
-        <v>0.1635305881468412</v>
+        <v>0.4707415100124308</v>
       </c>
       <c r="D15">
-        <v>0.4808223517829902</v>
+        <v>0.2839984954700299</v>
       </c>
       <c r="E15">
-        <v>0.1439393682138297</v>
+        <v>0.04923551283347294</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.00252159268314432</v>
+        <v>0.000798583626117018</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06129179673048668</v>
+        <v>0.05282226184445094</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4288072854509721</v>
+        <v>0.3360864974715696</v>
       </c>
       <c r="M15">
-        <v>0.5243764651238862</v>
+        <v>0.7341279316796161</v>
       </c>
       <c r="N15">
-        <v>1.978406293948334</v>
+        <v>0.7757041728439216</v>
       </c>
       <c r="O15">
-        <v>6.668048250906679</v>
+        <v>4.229581959754853</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.20363172802729</v>
+        <v>3.745393697927341</v>
       </c>
       <c r="C16">
-        <v>0.1552882871042982</v>
+        <v>0.4439024419041857</v>
       </c>
       <c r="D16">
-        <v>0.4800285883424635</v>
+        <v>0.2742650859392199</v>
       </c>
       <c r="E16">
-        <v>0.144424808278667</v>
+        <v>0.04967386722595979</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002523812062283419</v>
+        <v>0.0008022522939823592</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06075851855531766</v>
+        <v>0.05124023341437223</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4258406602510405</v>
+        <v>0.3198090021880802</v>
       </c>
       <c r="M16">
-        <v>0.513617277759046</v>
+        <v>0.6894759865227087</v>
       </c>
       <c r="N16">
-        <v>1.992335354449322</v>
+        <v>0.8097843496363364</v>
       </c>
       <c r="O16">
-        <v>6.662952667852778</v>
+        <v>4.087893013686823</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.16422302266875</v>
+        <v>3.591184670653888</v>
       </c>
       <c r="C17">
-        <v>0.150219360205881</v>
+        <v>0.4274820292556285</v>
       </c>
       <c r="D17">
-        <v>0.4795920274834771</v>
+        <v>0.2684157470031039</v>
       </c>
       <c r="E17">
-        <v>0.1447322797672728</v>
+        <v>0.0499584196947449</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002525204457047285</v>
+        <v>0.0008045254087493877</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06042954929449706</v>
+        <v>0.05027181396497937</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4240624851751988</v>
+        <v>0.309934639875479</v>
       </c>
       <c r="M17">
-        <v>0.5070670708621492</v>
+        <v>0.6622747318088358</v>
       </c>
       <c r="N17">
-        <v>2.001065183850923</v>
+        <v>0.8311442961405682</v>
       </c>
       <c r="O17">
-        <v>6.660734435845768</v>
+        <v>4.003756370077696</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.141629136253982</v>
+        <v>3.502806119909337</v>
       </c>
       <c r="C18">
-        <v>0.1472992676595766</v>
+        <v>0.4180518476076713</v>
       </c>
       <c r="D18">
-        <v>0.4793594653936424</v>
+        <v>0.2650943257880414</v>
       </c>
       <c r="E18">
-        <v>0.1449126868594286</v>
+        <v>0.05012772815798527</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002526016700244838</v>
+        <v>0.0008058413887837029</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06023966653608781</v>
+        <v>0.04971545523293841</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4230551010439854</v>
+        <v>0.3042941084403878</v>
       </c>
       <c r="M18">
-        <v>0.5033180821967065</v>
+        <v>0.6466952834802981</v>
       </c>
       <c r="N18">
-        <v>2.006154242995661</v>
+        <v>0.8435922993646567</v>
       </c>
       <c r="O18">
-        <v>6.659792027165452</v>
+        <v>3.956341155940123</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.133991799148248</v>
+        <v>3.472935257866027</v>
       </c>
       <c r="C19">
-        <v>0.1463097906872122</v>
+        <v>0.4148612461544303</v>
       </c>
       <c r="D19">
-        <v>0.4792839092769157</v>
+        <v>0.2639769634835858</v>
       </c>
       <c r="E19">
-        <v>0.144974381009904</v>
+        <v>0.05018601233908004</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002526293667838135</v>
+        <v>0.000806288449712505</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06017526076945856</v>
+        <v>0.04952718222570951</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4227166617199174</v>
+        <v>0.3023908273032845</v>
       </c>
       <c r="M19">
-        <v>0.5020519257038245</v>
+        <v>0.6414312896223677</v>
       </c>
       <c r="N19">
-        <v>2.007888969510278</v>
+        <v>0.8478344819648562</v>
       </c>
       <c r="O19">
-        <v>6.659530203317644</v>
+        <v>3.94045096105279</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.16841060374486</v>
+        <v>3.607567030557959</v>
       </c>
       <c r="C20">
-        <v>0.1507594307900604</v>
+        <v>0.429228476586843</v>
       </c>
       <c r="D20">
-        <v>0.4796365821386246</v>
+        <v>0.2690339329415394</v>
       </c>
       <c r="E20">
-        <v>0.1446991807928351</v>
+        <v>0.04992754241818709</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002525055057698361</v>
+        <v>0.0008042825535227984</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06046463781916245</v>
+        <v>0.0503748338485579</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4242501843764614</v>
+        <v>0.3109817087321431</v>
       </c>
       <c r="M20">
-        <v>0.5077624366206805</v>
+        <v>0.6651634270454565</v>
       </c>
       <c r="N20">
-        <v>2.000128851532688</v>
+        <v>0.8288536027748616</v>
       </c>
       <c r="O20">
-        <v>6.660936055600928</v>
+        <v>4.012610641961487</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.284922266264005</v>
+        <v>4.06387591557592</v>
       </c>
       <c r="C21">
-        <v>0.1656546868389057</v>
+        <v>0.477686226253951</v>
       </c>
       <c r="D21">
-        <v>0.4810428482147699</v>
+        <v>0.2865506341917836</v>
       </c>
       <c r="E21">
-        <v>0.1438170233552061</v>
+        <v>0.0491272605338775</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002521029207230974</v>
+        <v>0.0007976431761482998</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06142891536303807</v>
+        <v>0.05323146465264728</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4295860931268862</v>
+        <v>0.3403251230935069</v>
       </c>
       <c r="M21">
-        <v>0.5271697434042366</v>
+        <v>0.7457189408272669</v>
       </c>
       <c r="N21">
-        <v>1.974867236116722</v>
+        <v>0.7670487983753187</v>
       </c>
       <c r="O21">
-        <v>6.669644577526583</v>
+        <v>4.267062599283577</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.361711493429596</v>
+        <v>4.365433755486549</v>
       </c>
       <c r="C22">
-        <v>0.1753481921587365</v>
+        <v>0.5095271376578978</v>
       </c>
       <c r="D22">
-        <v>0.482126584285453</v>
+        <v>0.2984206549077442</v>
       </c>
       <c r="E22">
-        <v>0.1432720773729308</v>
+        <v>0.04865675589177165</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002518498796546594</v>
+        <v>0.0007933740688477293</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06205316136822603</v>
+        <v>0.05510692704801556</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4332096767519289</v>
+        <v>0.3598929080420987</v>
       </c>
       <c r="M22">
-        <v>0.5400170219914315</v>
+        <v>0.7990484347205324</v>
       </c>
       <c r="N22">
-        <v>1.958962359483925</v>
+        <v>0.7281909696061799</v>
       </c>
       <c r="O22">
-        <v>6.678308360510755</v>
+        <v>4.443066927778375</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.320669248887839</v>
+        <v>4.204156220757682</v>
       </c>
       <c r="C23">
-        <v>0.170178404601586</v>
+        <v>0.492515213607021</v>
       </c>
       <c r="D23">
-        <v>0.4815331269418976</v>
+        <v>0.2920448063265013</v>
       </c>
       <c r="E23">
-        <v>0.1435600384710849</v>
+        <v>0.04890295085218455</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002519840136491459</v>
+        <v>0.000795646460006692</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06172053599494021</v>
+        <v>0.05410504240789393</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4312632658630662</v>
+        <v>0.3494113003125108</v>
       </c>
       <c r="M23">
-        <v>0.533145297113272</v>
+        <v>0.7705182937863881</v>
       </c>
       <c r="N23">
-        <v>1.967395705323961</v>
+        <v>0.7487850915472851</v>
       </c>
       <c r="O23">
-        <v>6.673412235361468</v>
+        <v>4.348191266888023</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.166517202937314</v>
+        <v>3.600159704241605</v>
       </c>
       <c r="C24">
-        <v>0.1505152832475858</v>
+        <v>0.428438876646112</v>
       </c>
       <c r="D24">
-        <v>0.479616381591299</v>
+        <v>0.2687543224201079</v>
       </c>
       <c r="E24">
-        <v>0.1447141335074518</v>
+        <v>0.04994148425726941</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002525122564472369</v>
+        <v>0.0008043923198499115</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06044877664563231</v>
+        <v>0.05032825734673452</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4241652791104116</v>
+        <v>0.3105082160813168</v>
       </c>
       <c r="M24">
-        <v>0.5074480093756719</v>
+        <v>0.6638572654327888</v>
       </c>
       <c r="N24">
-        <v>2.000551948812266</v>
+        <v>0.8298887032858087</v>
       </c>
       <c r="O24">
-        <v>6.660843866402018</v>
+        <v>4.008604658438998</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.00303248767392</v>
+        <v>2.960582892519767</v>
       </c>
       <c r="C25">
-        <v>0.1291306231057376</v>
+        <v>0.3598525134507042</v>
       </c>
       <c r="D25">
-        <v>0.4782577584500274</v>
+        <v>0.2452551217863999</v>
       </c>
       <c r="E25">
-        <v>0.1460950807905821</v>
+        <v>0.05127626394161755</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002531255746134334</v>
+        <v>0.0008141557896917807</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05905142968906674</v>
+        <v>0.04627797473936468</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4170971288848477</v>
+        <v>0.2700126092260291</v>
       </c>
       <c r="M25">
-        <v>0.4804380008622076</v>
+        <v>0.5512834201387165</v>
       </c>
       <c r="N25">
-        <v>2.03891182925423</v>
+        <v>0.9235348280093252</v>
       </c>
       <c r="O25">
-        <v>6.660033774022367</v>
+        <v>3.679212153935538</v>
       </c>
     </row>
   </sheetData>
